--- a/trunk/Análise/Processos PMS.xlsx
+++ b/trunk/Análise/Processos PMS.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PMS\Análise\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="42">
   <si>
     <t>Documentado</t>
   </si>
@@ -139,6 +144,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Criação de Nova Versão de Projeto</t>
   </si>
 </sst>
 </file>
@@ -254,6 +262,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -301,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,7 +347,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -545,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +699,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -699,24 +710,18 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -733,7 +738,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -750,7 +755,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -767,7 +772,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -784,7 +789,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -801,18 +806,24 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -823,24 +834,18 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -857,7 +862,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -874,7 +879,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -891,7 +896,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -908,18 +913,24 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -930,7 +941,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -941,24 +952,18 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -975,21 +980,24 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1003,7 +1011,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -1017,7 +1025,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -1031,35 +1039,49 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>40</v>
       </c>
     </row>

--- a/trunk/Análise/Processos PMS.xlsx
+++ b/trunk/Análise/Processos PMS.xlsx
@@ -16,12 +16,15 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$F$33</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="42">
   <si>
     <t>Documentado</t>
   </si>
@@ -559,7 +562,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,27 +597,18 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -634,10 +628,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -654,7 +645,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -674,54 +665,78 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -738,7 +753,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -755,7 +773,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -772,7 +790,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -789,7 +807,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -806,7 +824,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -823,29 +841,41 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -862,7 +892,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -879,7 +909,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -896,7 +926,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -913,24 +943,18 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -941,91 +965,82 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -1039,53 +1054,43 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>40</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F33">
+    <sortState ref="A2:F33">
+      <sortCondition ref="A1:A33"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/trunk/Análise/Processos PMS.xlsx
+++ b/trunk/Análise/Processos PMS.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$F$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$G$45</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="55">
   <si>
     <t>Documentado</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Cadastrar Turnos</t>
   </si>
   <si>
-    <t>Cadastrar Turnos/Dia Semana/Funcionários</t>
-  </si>
-  <si>
     <t>Cadastrar Funcionários por Recursos</t>
   </si>
   <si>
@@ -150,6 +147,48 @@
   </si>
   <si>
     <t>Criação de Nova Versão de Projeto</t>
+  </si>
+  <si>
+    <t>Cadastrar Turnos/Dia Semana por Funcionário</t>
+  </si>
+  <si>
+    <t>Cadastrar Tipos de Pessoas</t>
+  </si>
+  <si>
+    <t>Cadastrar Status</t>
+  </si>
+  <si>
+    <t>Lançar Marcos do Projeto</t>
+  </si>
+  <si>
+    <t>Lançar Serviços por Marcos</t>
+  </si>
+  <si>
+    <t>Cadastrar Serviços dos Marcos</t>
+  </si>
+  <si>
+    <t>Lançar Recursos dos Serviços</t>
+  </si>
+  <si>
+    <t>Lançar Materiais dos Serviços</t>
+  </si>
+  <si>
+    <t>Totalizar Materiais da OS</t>
+  </si>
+  <si>
+    <t>Totalizar Funcionários da OS</t>
+  </si>
+  <si>
+    <t>Totalizar Recursos por OS</t>
+  </si>
+  <si>
+    <t>Ordem</t>
+  </si>
+  <si>
+    <t>Cancelar Projeto</t>
+  </si>
+  <si>
+    <t>Gerar Nova Versão Projeto</t>
   </si>
 </sst>
 </file>
@@ -181,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -193,7 +232,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -211,10 +250,25 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -223,6 +277,127 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -238,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -246,13 +421,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,536 +767,797 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C35" s="4"/>
+      <c r="D35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+      <c r="B40" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C40" s="4"/>
+      <c r="D40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+      <c r="B41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F33">
-    <sortState ref="A2:F33">
-      <sortCondition ref="A1:A33"/>
+  <autoFilter ref="A1:G45">
+    <sortState ref="A2:G45">
+      <sortCondition ref="A1:A45"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/trunk/Análise/Processos PMS.xlsx
+++ b/trunk/Análise/Processos PMS.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$G$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$G$44</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="54">
   <si>
     <t>Documentado</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Cadastrar Marcos</t>
-  </si>
-  <si>
-    <t>Cadastro Marcos/Serviços</t>
   </si>
   <si>
     <t>Cadastrar Serviços</t>
@@ -767,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +782,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -820,13 +817,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -843,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -866,13 +863,13 @@
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -889,13 +886,13 @@
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -903,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="3" t="s">
@@ -918,607 +915,623 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="17">
+        <v>12</v>
+      </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="17">
+        <v>14</v>
+      </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="17">
+        <v>15</v>
+      </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="17">
+        <v>16</v>
+      </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="17">
+        <v>17</v>
+      </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="17">
+        <v>18</v>
+      </c>
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="A20" s="17">
+        <v>19</v>
+      </c>
       <c r="B20" s="3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
+      <c r="E20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="17">
+        <v>20</v>
+      </c>
       <c r="B21" s="3" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
+      <c r="E21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="17">
+        <v>21</v>
+      </c>
       <c r="B22" s="3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="3" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="3" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="3" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F32" s="4"/>
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="3" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="3" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="F39" s="4"/>
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="3" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="F41" s="4"/>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="3" t="s">
@@ -1528,36 +1541,23 @@
       <c r="F43" s="4"/>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="8"/>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G45">
-    <sortState ref="A2:G45">
-      <sortCondition ref="A1:A45"/>
+  <autoFilter ref="A1:G44">
+    <sortState ref="A2:G44">
+      <sortCondition ref="D1:D44"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/trunk/Análise/Processos PMS.xlsx
+++ b/trunk/Análise/Processos PMS.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$G$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$G$41</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="51">
   <si>
     <t>Documentado</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Cadastrar Funcionários por Recursos</t>
   </si>
   <si>
-    <t>Lançar Marcos por Projetos</t>
-  </si>
-  <si>
     <t>Cadastrar Marcos</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>Cadastro de Parâmetros</t>
   </si>
   <si>
-    <t>Cadastro de Dia não ùtil</t>
-  </si>
-  <si>
     <t>Lançar Ordens de Serviço</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>Criação de Nova Versão de Projeto</t>
-  </si>
-  <si>
     <t>Cadastrar Turnos/Dia Semana por Funcionário</t>
   </si>
   <si>
@@ -158,18 +149,9 @@
     <t>Lançar Marcos do Projeto</t>
   </si>
   <si>
-    <t>Lançar Serviços por Marcos</t>
-  </si>
-  <si>
     <t>Cadastrar Serviços dos Marcos</t>
   </si>
   <si>
-    <t>Lançar Recursos dos Serviços</t>
-  </si>
-  <si>
-    <t>Lançar Materiais dos Serviços</t>
-  </si>
-  <si>
     <t>Totalizar Materiais da OS</t>
   </si>
   <si>
@@ -186,13 +168,22 @@
   </si>
   <si>
     <t>Gerar Nova Versão Projeto</t>
+  </si>
+  <si>
+    <t>Lançar Serviços da Ordem de Serviço</t>
+  </si>
+  <si>
+    <t>Cadastro de Dia não Ùtil</t>
+  </si>
+  <si>
+    <t>Cadastrar Materiais por Serviço Do Marco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +199,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -217,7 +228,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -286,21 +297,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -410,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -425,39 +421,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -764,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +786,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -817,13 +821,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -840,13 +844,13 @@
         <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -863,13 +867,13 @@
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -886,13 +890,13 @@
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -900,7 +904,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="3" t="s">
@@ -921,15 +925,9 @@
       <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
@@ -943,13 +941,13 @@
         <v>4</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -964,13 +962,13 @@
         <v>4</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -985,13 +983,13 @@
         <v>4</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -999,20 +997,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1020,20 +1018,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1041,20 +1039,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1062,20 +1060,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1083,7 +1081,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="3" t="s">
@@ -1098,20 +1096,20 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1119,20 +1117,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1140,20 +1138,20 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1161,20 +1159,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1182,20 +1180,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1210,13 +1208,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1224,273 +1222,325 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="3" t="s">
+      <c r="E22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>22</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="17">
+        <v>24</v>
+      </c>
       <c r="B25" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="17">
+        <v>25</v>
+      </c>
       <c r="B26" s="3" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="17">
+        <v>26</v>
+      </c>
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="17">
+        <v>27</v>
+      </c>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="17">
+        <v>28</v>
+      </c>
       <c r="B29" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F29" s="4"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+      <c r="A30" s="17">
+        <v>29</v>
+      </c>
       <c r="B30" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F30" s="4"/>
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
+      <c r="A31" s="17">
+        <v>30</v>
+      </c>
       <c r="B31" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F31" s="4"/>
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
+      <c r="A32" s="17">
+        <v>31</v>
+      </c>
       <c r="B32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
+      <c r="A33" s="17">
+        <v>32</v>
+      </c>
       <c r="B33" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="F33" s="4"/>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
+      <c r="A34" s="17">
+        <v>33</v>
+      </c>
       <c r="B34" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+      <c r="A35" s="17">
+        <v>34</v>
+      </c>
       <c r="B35" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
+      <c r="A36" s="17">
+        <v>35</v>
+      </c>
       <c r="B36" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
+      <c r="A37" s="17">
+        <v>36</v>
+      </c>
       <c r="B37" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
+      <c r="A38" s="17">
+        <v>37</v>
+      </c>
       <c r="B38" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
+      <c r="A39" s="17">
+        <v>38</v>
+      </c>
       <c r="B39" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
+      <c r="A40" s="17">
+        <v>39</v>
+      </c>
       <c r="B40" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="3" t="s">
@@ -1500,64 +1550,25 @@
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="8"/>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="17">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G44">
-    <sortState ref="A2:G44">
-      <sortCondition ref="D1:D44"/>
+  <autoFilter ref="A1:G41">
+    <sortState ref="A2:G40">
+      <sortCondition ref="A1:A40"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
